--- a/biology/Zoologie/Goliathus_cacicus/Goliathus_cacicus.xlsx
+++ b/biology/Zoologie/Goliathus_cacicus/Goliathus_cacicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goliathus cacicus est une espèce de coléoptères appartenant à la famille des Scarabaeidae, dans la sous-famille des Cetoniinae[2],[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goliathus cacicus est une espèce de coléoptères appartenant à la famille des Scarabaeidae, dans la sous-famille des Cetoniinae,
 .
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goliathus cacicus peut atteindre une longueur d'environ 50 à 100 millimètres chez les mâles, et environ 70 mm chez les femelles[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goliathus cacicus peut atteindre une longueur d'environ 50 à 100 millimètres chez les mâles, et environ 70 mm chez les femelles.
 			 Goliathus cacicus (ici : individu gynandromorphe) au Musée d'histoire naturelle de Lille.
 			 Goliathus cacicus à Jonsdorf (Allemagne)
 			 Musée zoologique de Saint-Pétersbourg
@@ -550,9 +564,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est l’un des plus gros coléoptères du monde. Il vit dans les forêts de l’Ouest de l’Afrique équatoriale. Cette espèce est présente au Burkina Faso, au Ghana, en Guinée, en Côte d'Ivoire, au Libéria, au Nigéria et en Sierra Leone[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est l’un des plus gros coléoptères du monde. Il vit dans les forêts de l’Ouest de l’Afrique équatoriale. Cette espèce est présente au Burkina Faso, au Ghana, en Guinée, en Côte d'Ivoire, au Libéria, au Nigéria et en Sierra Leone,.
 </t>
         </is>
       </c>
@@ -581,31 +597,33 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Goliathus maculatus Endrödi, 1960[6]
-Goliathus indecorus Endrödi, 1960[6]
-Goliathus decorus Endrödi, 1960[6]
-Goliathus interruptus Endrödi, 1960[6]
-Goliathus imperialis Endrödi, 1960[6]
-Goliathus elegans Endrödi, 1960[6]
-Goliathus divisus Endrödi, 1960[6]
-Goliathus deletus Endrödi, 1960[6]
-Goliathus defectus Endrödi, 1960[6]
-Goliathus nigripennis Endrödi, 1960[6]
-Goliathus decoloratus Endrödi, 1960[6]
-Goliathus debilis Endrödi, 1960[6]
-Goliathus pauper Endrödi, 1960[6]
-Goliathus problematicus Endrödi, 1960[6]
-Goliathus ovatus Endrödi, 1960[6]
-Goliathus obscurus Endrödi, 1960[6]
-Goliathus uniformis Endrödi, 1960[6]
-Goliathus frequens Endrödi, 1960[6]
-Goliathus hieroglyphicus Sjöstedt, 1928[7]
-Goliathus quadrimaculatus Sjöstedt, 1928[7]
-Goliata princeps Hope, 1837[8]
-Scarabaeus goliatus Herbst, 1789[9]
+Goliathus maculatus Endrödi, 1960
+Goliathus indecorus Endrödi, 1960
+Goliathus decorus Endrödi, 1960
+Goliathus interruptus Endrödi, 1960
+Goliathus imperialis Endrödi, 1960
+Goliathus elegans Endrödi, 1960
+Goliathus divisus Endrödi, 1960
+Goliathus deletus Endrödi, 1960
+Goliathus defectus Endrödi, 1960
+Goliathus nigripennis Endrödi, 1960
+Goliathus decoloratus Endrödi, 1960
+Goliathus debilis Endrödi, 1960
+Goliathus pauper Endrödi, 1960
+Goliathus problematicus Endrödi, 1960
+Goliathus ovatus Endrödi, 1960
+Goliathus obscurus Endrödi, 1960
+Goliathus uniformis Endrödi, 1960
+Goliathus frequens Endrödi, 1960
+Goliathus hieroglyphicus Sjöstedt, 1928
+Goliathus quadrimaculatus Sjöstedt, 1928
+Goliata princeps Hope, 1837
+Scarabaeus goliatus Herbst, 1789
 </t>
         </is>
       </c>
